--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4056473333333333</v>
+        <v>0.221213</v>
       </c>
       <c r="N2">
-        <v>1.216942</v>
+        <v>0.6636390000000001</v>
       </c>
       <c r="O2">
-        <v>0.2120329281749088</v>
+        <v>0.1279649941053948</v>
       </c>
       <c r="P2">
-        <v>0.2120329281749088</v>
+        <v>0.1279649941053949</v>
       </c>
       <c r="Q2">
-        <v>0.33791436985</v>
+        <v>0.184275959325</v>
       </c>
       <c r="R2">
-        <v>3.041229328650001</v>
+        <v>1.658483633925</v>
       </c>
       <c r="S2">
-        <v>0.2120329281749088</v>
+        <v>0.1279649941053948</v>
       </c>
       <c r="T2">
-        <v>0.2120329281749088</v>
+        <v>0.1279649941053949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>3.259296</v>
       </c>
       <c r="O3">
-        <v>0.5678808642225905</v>
+        <v>0.6284678770050237</v>
       </c>
       <c r="P3">
-        <v>0.5678808642225904</v>
+        <v>0.6284678770050239</v>
       </c>
       <c r="Q3">
         <v>0.9050250168000001</v>
@@ -632,10 +632,10 @@
         <v>8.145225151200002</v>
       </c>
       <c r="S3">
-        <v>0.5678808642225905</v>
+        <v>0.6284678770050237</v>
       </c>
       <c r="T3">
-        <v>0.5678808642225904</v>
+        <v>0.6284678770050239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>1.263163</v>
       </c>
       <c r="O4">
-        <v>0.2200862076025007</v>
+        <v>0.2435671288895813</v>
       </c>
       <c r="P4">
-        <v>0.2200862076025006</v>
+        <v>0.2435671288895814</v>
       </c>
       <c r="Q4">
         <v>0.3507487860250001</v>
@@ -694,10 +694,10 @@
         <v>3.156739074225001</v>
       </c>
       <c r="S4">
-        <v>0.2200862076025007</v>
+        <v>0.2435671288895813</v>
       </c>
       <c r="T4">
-        <v>0.2200862076025006</v>
+        <v>0.2435671288895814</v>
       </c>
     </row>
   </sheetData>
